--- a/data/trans_orig/IP07A29_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7CBFCF-22EB-46B0-9F01-479532301464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{376BB353-9573-4918-BEA0-94B5ECE22765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4F3C00A-13E6-46AC-8DCB-D43707BB3026}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F53EA05-D818-4966-9E2A-9AE364FEB6BC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>65,74%</t>
   </si>
   <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>64,71%</t>
   </si>
   <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>34,26%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>26,52%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -143,13 +143,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>14,02%</t>
+    <t>16,46%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>8,25%</t>
+    <t>7,07%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -167,13 +167,13 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>16,21%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>7,96%</t>
+    <t>7,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,385 +185,379 @@
     <t>59,81%</t>
   </si>
   <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
   </si>
   <si>
     <t>57,98%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>58,96%</t>
   </si>
   <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
   </si>
   <si>
     <t>32,7%</t>
   </si>
   <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>33,66%</t>
   </si>
   <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
   </si>
   <si>
     <t>2,3%</t>
   </si>
   <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>3,54%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>4,49%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
   </si>
   <si>
     <t>2,18%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -978,7 +972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B797F9C6-6750-4718-BBB5-C3261D62730C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D942ABC-0ADD-49A7-BB98-E5D83B1C011F}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1548,7 +1542,7 @@
         <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1563,13 +1557,13 @@
         <v>5463</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1578,13 +1572,13 @@
         <v>5052</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1593,13 +1587,13 @@
         <v>10516</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>9807</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1629,13 +1623,13 @@
         <v>1295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -1644,13 +1638,13 @@
         <v>11102</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,7 +1700,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1718,13 +1712,13 @@
         <v>65238</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -1733,13 +1727,13 @@
         <v>56619</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>160</v>
@@ -1748,13 +1742,13 @@
         <v>121857</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>28293</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1784,13 +1778,13 @@
         <v>18538</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>60</v>
@@ -1799,13 +1793,13 @@
         <v>46832</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>1466</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -1835,13 +1829,13 @@
         <v>3246</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -1850,13 +1844,13 @@
         <v>4712</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,13 +1865,13 @@
         <v>1403</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -1886,13 +1880,13 @@
         <v>1530</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -1901,13 +1895,13 @@
         <v>2933</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1916,13 @@
         <v>1493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -1937,13 +1931,13 @@
         <v>3083</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -1952,13 +1946,13 @@
         <v>4576</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2020,13 @@
         <v>258157</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>299</v>
@@ -2041,28 +2035,28 @@
         <v>219823</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>607</v>
       </c>
       <c r="N22" s="7">
-        <v>477978</v>
+        <v>477979</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2071,13 @@
         <v>133342</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -2092,28 +2086,28 @@
         <v>113035</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>289</v>
       </c>
       <c r="N23" s="7">
-        <v>246376</v>
+        <v>246377</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2122,13 @@
         <v>8245</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>22</v>
@@ -2143,13 +2137,13 @@
         <v>16148</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>30</v>
@@ -2158,13 +2152,13 @@
         <v>24393</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,13 +2173,13 @@
         <v>6866</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2194,13 +2188,13 @@
         <v>6583</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -2209,13 +2203,13 @@
         <v>13449</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2224,13 @@
         <v>11300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -2245,13 +2239,13 @@
         <v>5683</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>22</v>
@@ -2260,13 +2254,13 @@
         <v>16983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,7 +2302,7 @@
         <v>964</v>
       </c>
       <c r="N27" s="7">
-        <v>779180</v>
+        <v>779181</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>46</v>
@@ -2322,7 +2316,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A29_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A29_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{376BB353-9573-4918-BEA0-94B5ECE22765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4920CBA3-53F7-4D94-BDD1-F6F0802E1D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F53EA05-D818-4966-9E2A-9AE364FEB6BC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2724701C-153A-4553-9907-38B865AC9680}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="175">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempor para él/ella en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="171">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para él/ella en 2023 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,67 +68,97 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -137,427 +167,385 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -972,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D942ABC-0ADD-49A7-BB98-E5D83B1C011F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC012CB2-CB60-4756-A1F7-75AF278FF40A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1090,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>16960</v>
+        <v>21423</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1105,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>18108</v>
+        <v>8629</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1120,10 +1108,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>35068</v>
+        <v>30051</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1141,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>8837</v>
+        <v>4672</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1156,10 +1144,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>7421</v>
+        <v>9229</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1174,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>16258</v>
+        <v>13901</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1192,10 +1180,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>2487</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1207,40 +1195,40 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>1149</v>
+        <v>7096</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>1149</v>
+        <v>9583</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1249,49 +1237,49 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>2581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>2581</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1300,43 +1288,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,102 +1333,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" s="7">
-        <v>25797</v>
+        <v>28582</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>53780</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>175959</v>
+        <v>140211</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="I10" s="7">
-        <v>145095</v>
+        <v>142197</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="N10" s="7">
-        <v>321054</v>
+        <v>282408</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,46 +1440,46 @@
         <v>105</v>
       </c>
       <c r="D11" s="7">
-        <v>96211</v>
+        <v>71737</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="I11" s="7">
-        <v>87075</v>
+        <v>103083</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="N11" s="7">
-        <v>183287</v>
+        <v>174820</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1500,151 +1488,151 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7">
-        <v>6780</v>
+        <v>43930</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>11753</v>
+        <v>45986</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N12" s="7">
-        <v>18533</v>
+        <v>89917</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>5463</v>
+        <v>4729</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>5052</v>
+        <v>6269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>10516</v>
+        <v>10998</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="7">
-        <v>12</v>
-      </c>
-      <c r="D14" s="7">
-        <v>9807</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>1295</v>
+        <v>10535</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N14" s="7">
-        <v>11102</v>
+        <v>10535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,102 +1641,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D15" s="7">
-        <v>294220</v>
+        <v>260607</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="I15" s="7">
-        <v>250271</v>
+        <v>308070</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="N15" s="7">
-        <v>544491</v>
+        <v>568677</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D16" s="7">
-        <v>65238</v>
+        <v>47049</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>56619</v>
+        <v>64515</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="N16" s="7">
-        <v>121857</v>
+        <v>111564</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,49 +1745,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>44</v>
+      </c>
+      <c r="D17" s="7">
+        <v>30827</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
-        <v>28293</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
       <c r="I17" s="7">
-        <v>18538</v>
+        <v>29492</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>46832</v>
+        <v>60319</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,148 +1796,148 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>1466</v>
+        <v>2134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>3246</v>
+        <v>8387</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N18" s="7">
-        <v>4712</v>
+        <v>10520</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1403</v>
+        <v>772</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>549</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="7">
         <v>2</v>
       </c>
-      <c r="I19" s="7">
-        <v>1530</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
       <c r="N19" s="7">
-        <v>2933</v>
+        <v>1321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1493</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>3083</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>4576</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>130</v>
@@ -1961,49 +1949,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>114</v>
+      </c>
+      <c r="D21" s="7">
+        <v>80781</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7">
         <v>122</v>
       </c>
-      <c r="D21" s="7">
-        <v>97893</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" s="7">
-        <v>114</v>
-      </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>180910</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2014,10 +2002,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D22" s="7">
-        <v>258157</v>
+        <v>208682</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>131</v>
@@ -2029,10 +2017,10 @@
         <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="I22" s="7">
-        <v>219823</v>
+        <v>215340</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>134</v>
@@ -2044,10 +2032,10 @@
         <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>607</v>
+        <v>527</v>
       </c>
       <c r="N22" s="7">
-        <v>477979</v>
+        <v>424022</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>137</v>
@@ -2065,10 +2053,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D23" s="7">
-        <v>133342</v>
+        <v>107236</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>140</v>
@@ -2080,10 +2068,10 @@
         <v>142</v>
       </c>
       <c r="H23" s="7">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="I23" s="7">
-        <v>113035</v>
+        <v>141803</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>143</v>
@@ -2095,10 +2083,10 @@
         <v>145</v>
       </c>
       <c r="M23" s="7">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="N23" s="7">
-        <v>246377</v>
+        <v>249039</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>146</v>
@@ -2116,10 +2104,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>8245</v>
+        <v>48551</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>149</v>
@@ -2131,10 +2119,10 @@
         <v>151</v>
       </c>
       <c r="H24" s="7">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I24" s="7">
-        <v>16148</v>
+        <v>61470</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>152</v>
@@ -2146,10 +2134,10 @@
         <v>154</v>
       </c>
       <c r="M24" s="7">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="N24" s="7">
-        <v>24393</v>
+        <v>110021</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>155</v>
@@ -2164,49 +2152,49 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>6866</v>
+        <v>5500</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
-        <v>6583</v>
+        <v>9400</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N25" s="7">
-        <v>13449</v>
+        <v>14900</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>164</v>
@@ -2215,52 +2203,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="7">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <v>11300</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>6</v>
+      </c>
+      <c r="I26" s="7">
+        <v>10535</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H26" s="7">
-        <v>8</v>
-      </c>
-      <c r="I26" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>6</v>
+      </c>
+      <c r="N26" s="7">
+        <v>10535</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M26" s="7">
-        <v>22</v>
-      </c>
-      <c r="N26" s="7">
-        <v>16983</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,54 +2257,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D27" s="7">
-        <v>417910</v>
+        <v>369969</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="I27" s="7">
-        <v>361271</v>
+        <v>438548</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N27" s="7">
-        <v>779181</v>
+        <v>808517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
